--- a/downloaded_files/CCES280_Lecture-35182.xlsx
+++ b/downloaded_files/CCES280_Lecture-35182.xlsx
@@ -105,15 +105,6 @@
     <x:t>Adham ahmed mahmoud mamdouh Mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1230294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انطون مجدي يعقوب نظير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANTON</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210205</x:t>
   </x:si>
   <x:si>
@@ -222,15 +213,6 @@
     <x:t>Sohaila</x:t>
   </x:si>
   <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230059</x:t>
   </x:si>
   <x:si>
@@ -391,6 +373,24 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ماهر محمد رفعت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Maher Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود على عباس حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1230114</x:t>
@@ -921,7 +921,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="55.420625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1258,7 +1258,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4337642361</x:v>
+        <x:v>45906.4146233796</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1290,7 +1290,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4146233796</x:v>
+        <x:v>45907.4218114583</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1322,7 +1322,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4218114583</x:v>
+        <x:v>45914.3939059375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1354,7 +1354,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.3939059375</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1386,7 +1386,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45907.4199981134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1418,7 +1418,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4199981134</x:v>
+        <x:v>45907.4203944444</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1450,7 +1450,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4203944444</x:v>
+        <x:v>45907.4249642361</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1482,7 +1482,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4249642361</x:v>
+        <x:v>45914.3911132292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1514,7 +1514,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.3911132292</x:v>
+        <x:v>45907.4198693287</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1546,7 +1546,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4198693287</x:v>
+        <x:v>45907.4355965278</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1578,7 +1578,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4355965278</x:v>
+        <x:v>45906.6648877315</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1610,7 +1610,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1642,7 +1642,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45909.4396638889</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1674,7 +1674,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.2545929398</x:v>
+        <x:v>45907.4168797106</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1706,7 +1706,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4396638889</x:v>
+        <x:v>45912.2588943634</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1738,7 +1738,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4168797106</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1770,7 +1770,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.2588943634</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1802,7 +1802,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4340326042</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1834,7 +1834,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45912.2585427431</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1866,7 +1866,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4340326042</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1898,7 +1898,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.2585427431</x:v>
+        <x:v>45907.4233199074</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1930,7 +1930,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45914.3920021181</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1962,7 +1962,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4233199074</x:v>
+        <x:v>45907.4200599884</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1994,7 +1994,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.3920021181</x:v>
+        <x:v>45907.4148592245</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2026,7 +2026,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4200599884</x:v>
+        <x:v>45914.3828300116</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2058,7 +2058,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4148592245</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2090,7 +2090,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.3828300116</x:v>
+        <x:v>45914.3914859954</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2122,7 +2122,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45912.2550332523</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2154,7 +2154,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.3914859954</x:v>
+        <x:v>45912.2586525463</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2186,7 +2186,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.2550332523</x:v>
+        <x:v>45907.4204888079</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2218,7 +2218,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.2586525463</x:v>
+        <x:v>45927.4368436343</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2250,7 +2250,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4204888079</x:v>
+        <x:v>45927.4655527778</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>

--- a/downloaded_files/CCES280_Lecture-35182.xlsx
+++ b/downloaded_files/CCES280_Lecture-35182.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,12 @@
     <x:t>Ahmed Osama Ahmed Fathy Abdellatif</x:t>
   </x:si>
   <x:si>
+    <x:t>1240191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230139</x:t>
   </x:si>
   <x:si>
@@ -292,15 +298,6 @@
   </x:si>
   <x:si>
     <x:t>fares</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230079</x:t>
@@ -1094,11 +1091,9 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="D5" s="2" t="s"/>
       <x:c r="E5" s="3">
-        <x:v>45906.6811931713</x:v>
+        <x:v>45928.8567074421</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1121,16 +1116,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.2555559838</x:v>
+        <x:v>45906.6811931713</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1153,16 +1148,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.379605706</x:v>
+        <x:v>45912.2555559838</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1185,16 +1180,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.41445</x:v>
+        <x:v>45914.379605706</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1217,16 +1212,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4208520833</x:v>
+        <x:v>45907.41445</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1249,16 +1244,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4146233796</x:v>
+        <x:v>45907.4208520833</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1281,16 +1276,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4218114583</x:v>
+        <x:v>45906.4146233796</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1313,16 +1308,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.3939059375</x:v>
+        <x:v>45907.4218114583</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1345,16 +1340,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45914.3939059375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1377,16 +1372,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199981134</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1409,16 +1404,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4203944444</x:v>
+        <x:v>45907.4199981134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1441,16 +1436,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4249642361</x:v>
+        <x:v>45907.4203944444</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1473,16 +1468,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.3911132292</x:v>
+        <x:v>45907.4249642361</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1505,16 +1500,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4198693287</x:v>
+        <x:v>45914.3911132292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1537,16 +1532,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4355965278</x:v>
+        <x:v>45907.4198693287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1569,16 +1564,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45907.4355965278</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1601,16 +1596,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6656153935</x:v>
+        <x:v>45906.6648877315</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1633,16 +1628,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4396638889</x:v>
+        <x:v>45906.6656153935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1665,16 +1660,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4168797106</x:v>
+        <x:v>45909.4396638889</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1697,16 +1692,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.2588943634</x:v>
+        <x:v>45907.4168797106</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1729,16 +1724,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45912.2588943634</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1761,16 +1756,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1793,16 +1788,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4340326042</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1825,16 +1820,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.2585427431</x:v>
+        <x:v>45907.4340326042</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1857,16 +1852,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45912.2585427431</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1889,16 +1884,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4233199074</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1921,16 +1916,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.3920021181</x:v>
+        <x:v>45907.4233199074</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1953,13 +1948,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
         <x:v>45907.4200599884</x:v>
@@ -1985,13 +1980,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.4148592245</x:v>
@@ -2017,13 +2012,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45914.3828300116</x:v>
@@ -2049,13 +2044,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45906.4157335995</x:v>
@@ -2081,13 +2076,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45914.3914859954</x:v>
@@ -2113,13 +2108,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
         <x:v>45912.2550332523</x:v>
@@ -2145,13 +2140,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
         <x:v>45912.2586525463</x:v>
@@ -2177,13 +2172,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="C39" s="2" t="s">
+      <x:c r="D39" s="2" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
         <x:v>45907.4204888079</x:v>
@@ -2209,13 +2204,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
         <x:v>45927.4368436343</x:v>
@@ -2241,13 +2236,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
         <x:v>45927.4655527778</x:v>
@@ -2273,13 +2268,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
+      <x:c r="D42" s="2" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
         <x:v>45907.4200175116</x:v>
@@ -2305,13 +2300,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="C43" s="2" t="s">
+      <x:c r="D43" s="2" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
         <x:v>45906.6651491551</x:v>
@@ -2337,13 +2332,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="C44" s="2" t="s">
+      <x:c r="D44" s="2" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
         <x:v>45906.6651337153</x:v>
@@ -2369,13 +2364,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
+      <x:c r="D45" s="2" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
         <x:v>45914.3937980324</x:v>
@@ -2401,13 +2396,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
+      <x:c r="D46" s="2" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
         <x:v>45914.3824866088</x:v>
@@ -2433,13 +2428,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
         <x:v>45907.4200846412</x:v>
@@ -2465,13 +2460,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="C48" s="2" t="s">
+      <x:c r="D48" s="2" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
         <x:v>45906.6691736921</x:v>
@@ -2497,13 +2492,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="C49" s="2" t="s">
+      <x:c r="D49" s="2" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
         <x:v>45907.4999558218</x:v>
@@ -2529,13 +2524,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="C50" s="2" t="s">
+      <x:c r="D50" s="2" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
         <x:v>45912.2552148495</x:v>
@@ -2561,13 +2556,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="C51" s="2" t="s">
+      <x:c r="D51" s="2" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="D51" s="2" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="E51" s="3">
         <x:v>45907.4208764699</x:v>
@@ -2593,10 +2588,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s"/>
       <x:c r="E52" s="3">
@@ -2623,13 +2618,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="C53" s="2" t="s">
+      <x:c r="D53" s="2" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="D53" s="2" t="s">
-        <x:v>159</x:v>
       </x:c>
       <x:c r="E53" s="3">
         <x:v>45906.6648181713</x:v>

--- a/downloaded_files/CCES280_Lecture-35182.xlsx
+++ b/downloaded_files/CCES280_Lecture-35182.xlsx
@@ -99,7 +99,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230157</x:t>

--- a/downloaded_files/CCES280_Lecture-35182.xlsx
+++ b/downloaded_files/CCES280_Lecture-35182.xlsx
@@ -171,7 +171,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1240307</x:t>
@@ -252,7 +252,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1220130</x:t>
@@ -315,7 +315,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1240119</x:t>
@@ -351,7 +351,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1240358</x:t>
@@ -369,7 +369,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>4220140</x:t>
@@ -917,7 +917,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="55.420625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
